--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="91">
   <si>
     <t>Property</t>
   </si>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -128,45 +128,42 @@
     <t>version</t>
   </si>
   <si>
-    <t>displayLanguage</t>
-  </si>
-  <si>
-    <t>en-US,en;q=0.9</t>
-  </si>
-  <si>
     <t>warning-draft</t>
   </si>
   <si>
     <t>http://www.roadsafetyph.doh.gov.ph/ValueSet|0.1.0</t>
   </si>
   <si>
-    <t>includeDesignations</t>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>XE5XH</t>
+  </si>
+  <si>
+    <t>Air</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>BHS</t>
   </si>
   <si>
@@ -194,7 +191,7 @@
     <t>Jeepney</t>
   </si>
   <si>
-    <t>LAND</t>
+    <t>XE9S7</t>
   </si>
   <si>
     <t>Land</t>
@@ -218,15 +215,6 @@
     <t>Other Vehicle/Object Involved (for COLLISION accident ONLY)</t>
   </si>
   <si>
-    <t>ER_OUTPATIENT_OUTCOME</t>
-  </si>
-  <si>
-    <t>Outcome</t>
-  </si>
-  <si>
-    <t>INPATIENT_OUTCOME</t>
-  </si>
-  <si>
     <t>PLACEOCCURRENCE</t>
   </si>
   <si>
@@ -294,6 +282,12 @@
   </si>
   <si>
     <t>Was Transport Coordinated with Receiving Hospital?</t>
+  </si>
+  <si>
+    <t>XE85L</t>
+  </si>
+  <si>
+    <t>Water</t>
   </si>
 </sst>
 </file>
@@ -609,7 +603,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -644,31 +638,15 @@
         <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -686,508 +664,508 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>36</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>32</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-LocalCodesVS.xlsx
+++ b/ValueSet-SILPH-LocalCodesVS.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
